--- a/config_3.16/act_hhl_ty_config.xlsx
+++ b/config_3.16/act_hhl_ty_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>line|</t>
   </si>
@@ -81,12 +81,6 @@
   </si>
   <si>
     <t>type|类型 实物 1 金币 0</t>
-  </si>
-  <si>
-    <t>200万金币</t>
-  </si>
-  <si>
-    <t>pay_icon_gold7</t>
   </si>
   <si>
     <t>ID</t>
@@ -162,9 +156,6 @@
   </si>
   <si>
     <t>swjl_1</t>
-  </si>
-  <si>
-    <t>swjl_1</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -174,20 +165,10 @@
     <t>swjl_3</t>
   </si>
   <si>
-    <t>icon_gjhd</t>
-  </si>
-  <si>
     <t>icon_cjhd</t>
   </si>
   <si>
-    <t>icon_jc</t>
-  </si>
-  <si>
     <t>icon_yc</t>
-  </si>
-  <si>
-    <t>高级核弹*1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -240,11 +221,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>act_005_hhl_</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_005_hhl_</t>
+    <t>actp_no_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_cjj_gej_exchange_V5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>swjl_4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_006_hhl_</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的空调</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -252,32 +249,12 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>家用吸尘器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小米蓝牙耳机</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>山药薄片*10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>小金锤*10</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>500万金币</t>
+    <t>扫地机器人</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>pay_icon_gold</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -288,25 +265,51 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>8</t>
+      <t>00元话费</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>actp_no_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_cjj_gej_exchange_V5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>swjl_4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>500万鱼币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙亲嘴烧30片</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000福利券</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>com_award_icon_hf</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yb_5</t>
+  </si>
+  <si>
+    <t>ty_icon_flq4</t>
+  </si>
+  <si>
+    <t>500万小游戏币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_yxb_5</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,10 +791,10 @@
         <v>8</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>5</v>
@@ -811,19 +814,19 @@
         <v>45</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F2" s="11">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G2" s="11">
         <v>1615823999</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>10</v>
@@ -843,19 +846,19 @@
         <v>46</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F3" s="11">
-        <v>1615248000</v>
+        <v>1615852800</v>
       </c>
       <c r="G3" s="11">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -875,14 +878,14 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
     <col min="2" max="2" width="28.25" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.375" style="6" customWidth="1"/>
     <col min="5" max="5" width="23" style="6" customWidth="1"/>
     <col min="6" max="6" width="24.125" style="6" customWidth="1"/>
@@ -892,7 +895,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>15</v>
@@ -918,20 +921,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D2" s="13">
-        <v>866600</v>
+        <v>1080000</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="11">
         <v>1</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -939,32 +942,34 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="13">
-        <v>96666</v>
+        <v>880000</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11">
         <v>1</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D4" s="13">
-        <v>58888</v>
+        <v>180000</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="11">
@@ -976,14 +981,14 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>42</v>
+      <c r="B5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D5" s="13">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11">
@@ -996,10 +1001,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="10">
         <v>18000</v>
@@ -1014,18 +1019,18 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>21</v>
+      <c r="B7" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="10">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="14"/>
     </row>
@@ -1034,17 +1039,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D8" s="10">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="14"/>
     </row>
@@ -1053,10 +1058,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D9" s="13">
         <v>3666</v>
@@ -1072,20 +1077,20 @@
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>38</v>
+        <v>52</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="D10" s="13">
-        <v>866600</v>
+        <v>1080000</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="11">
         <v>1</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -1093,32 +1098,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" s="13">
-        <v>96666</v>
+        <v>880000</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="11">
         <v>1</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D12" s="13">
-        <v>58888</v>
+        <v>180000</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="11">
@@ -1131,13 +1138,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>44</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="13">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="11">
@@ -1150,10 +1157,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D14" s="10">
         <v>18000</v>
@@ -1168,18 +1175,18 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>21</v>
+      <c r="B15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D15" s="10">
-        <v>7200</v>
+        <v>8000</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="14"/>
     </row>
@@ -1188,17 +1195,17 @@
         <v>15</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10">
-        <v>8000</v>
+        <v>7200</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="14"/>
     </row>
@@ -1207,10 +1214,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D17" s="13">
         <v>3666</v>
@@ -1247,19 +1254,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -1270,7 +1277,7 @@
         <v>1000324</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1">
         <v>45</v>
@@ -1284,7 +1291,7 @@
         <v>1000325</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1">
         <v>90</v>
@@ -1298,7 +1305,7 @@
         <v>1000326</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1">
         <v>150</v>
@@ -1312,7 +1319,7 @@
         <v>1000327</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1">
         <v>290</v>
@@ -1326,7 +1333,7 @@
         <v>1000328</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D6" s="1">
         <v>590</v>
@@ -1340,7 +1347,7 @@
         <v>1000329</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="1">
         <v>1490</v>
@@ -1354,7 +1361,7 @@
         <v>1000330</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>2990</v>
@@ -1368,7 +1375,7 @@
         <v>1000331</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D9" s="1">
         <v>7490</v>
@@ -1423,9 +1430,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="1"/>
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="4"/>
+  <pixelatorList sheetStid="6"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1439,17 +1451,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="1"/>
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="4"/>
-  <pixelatorList sheetStid="6"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1460,22 +1481,8 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1487,13 +1494,13 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1505,7 +1512,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/config_3.16/act_hhl_ty_config.xlsx
+++ b/config_3.16/act_hhl_ty_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20325" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="config_infor" sheetId="9" r:id="rId1"/>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -823,7 +823,7 @@
         <v>1615852800</v>
       </c>
       <c r="G2" s="11">
-        <v>1615823999</v>
+        <v>1616428799</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>35</v>
@@ -877,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1430,6 +1430,36 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1438,36 +1468,6 @@
   <pixelatorList sheetStid="6"/>
   <pixelatorList sheetStid="7"/>
 </pixelators>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1482,13 +1482,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -1500,13 +1500,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/config_3.16/act_hhl_ty_config.xlsx
+++ b/config_3.16/act_hhl_ty_config.xlsx
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -811,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="11">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>50</v>
@@ -843,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>51</v>
@@ -878,7 +878,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1430,36 +1430,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
-  <rangeList sheetStid="1" master=""/>
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="4" master=""/>
-  <rangeList sheetStid="6" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-    <isAutoUpdatePaused>0</isAutoUpdatePaused>
-    <filterType>conn</filterType>
-  </bookSettings>
-</settings>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="2"/>
@@ -1470,7 +1440,7 @@
 </pixelators>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
@@ -1481,38 +1451,68 @@
 </sheetInterline>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main" hasInvisiblePropRange="0">
+  <rangeList sheetStid="1" master=""/>
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="4" master=""/>
+  <rangeList sheetStid="6" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+    <isAutoUpdatePaused>0</isAutoUpdatePaused>
+    <filterType>conn</filterType>
+  </bookSettings>
+</settings>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
 </file>